--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>Service</t>
   </si>
@@ -39,94 +39,610 @@
     <t>Alternate Translation</t>
   </si>
   <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Armed and Hammered was a hardcore punk band from Toronto, Ontario, spawned from the Kensington Market, BFG (Bunchofuckingoofs) scene.</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>Armed and Hammered were hardcore punk bands from Toronto, Ontario, originated from the scene of the Kensington market, BFG (Bunchofuckingoofs).</t>
+  </si>
+  <si>
+    <t>Abdication is the act of formally relinquishing monarchical authority; To give up leadership.</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>Amnesty is an act of formally abandoning the authority of the monarchy. Leadership abandonment.</t>
+  </si>
+  <si>
+    <t>This is a list of Latin words with derivatives in English (and other modern languages).</t>
+  </si>
+  <si>
+    <t>This is a list of Latin words whose derivation is English (and other modern languages).</t>
+  </si>
+  <si>
+    <t>In mathematical logic, a formula is said to be absolute if it has the same truth value in each of some class of structures (also called models).</t>
+  </si>
+  <si>
+    <t>In mathematical logic, a formula is called absolute if it has the same truth value in each of some classes of structures (also called models).</t>
+  </si>
+  <si>
+    <t>Abuse is the improper usage or treatment of an entity, often to unfairly or improperly gain benefit.</t>
+  </si>
+  <si>
+    <t>Abuse is often improper or inappropriate use or treatment to gain profits.</t>
+  </si>
+  <si>
+    <t>Wahoo (Acanthocybium solandri) is a scombrid fish found worldwide in tropical and subtropical seas.</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Wahoo (Acanthocybium solandri) is interspecific fish discovered all over the world in tropical and subtropical waters.</t>
+  </si>
+  <si>
+    <t>An accident, also known as an unintentional injury, is an undesirable, incidental, and unplanned event that could have been prevented had circumstances leading up to the accident been recognized, and acted upon, prior to its occurrence.</t>
+  </si>
+  <si>
+    <t>An accident, also known as an unintentional injury, is an unintended, unintended, unplanned event that can be prevented after recognizing and raising the situation to the accident.</t>
+  </si>
+  <si>
+    <t>Accompaniment is the musical parts which provide the rhythmic and/or harmonic support for the melody or main themes of a song or instrumental piece.</t>
+  </si>
+  <si>
+    <t>Accompaniment is a music part that provides rhythm and / or harmonic support for the main theme of a melody or song or instrument part.</t>
+  </si>
+  <si>
+    <t>"From each according to his ability, to each according to his needs" (French: De chacun selon ses moyens, à chacun selon ses besoins; German: Jeder nach seinen Fähigkeiten, jedem nach seinen Bedürfnissen) is a slogan popularised by Karl Marx in his 1875 Critique of the Gotha Program.</t>
+  </si>
+  <si>
+    <t>zh-CHS</t>
+  </si>
+  <si>
+    <t>(French: De chacun selon ses moyens, àchacun selon ses besoins; German: Jeder nach seinen fähigkeiten, jedem nach seinenBedürfnissen) is Karl Marx (Karl Marx) popular slogan, his 1875 Gotha plan criticism.</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata is a tropical fruit-bearing shrub or small tree in the family Malpighiaceae.</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata is a small tropical fruit shrub or tree in the Malpighiaceae family.</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>Armed and hammered was a band of punk hardcore from Toronto, Ontario, generated from the BFG (Bunchofuckingoofs) scene, Kensington market.</t>
+  </si>
+  <si>
+    <t>Resignation is the Act of formally renounce the monarchical authority; Give you direction.</t>
+  </si>
+  <si>
+    <t>This is a list of the derivative Latin word in English (and other modern languages) is.</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>In mathematical logic, a formula is supposed to be absolute if it has the same truth value in each class of structures (also called models).</t>
+  </si>
+  <si>
+    <t>Abuse is improper use or handling of entities, often unfair or improper gains.</t>
+  </si>
+  <si>
+    <t>Wahoo (Acanthocybium solandri) is a fish of scombridae, found around the world in tropical and subtropical seas.</t>
+  </si>
+  <si>
+    <t>An accident, also known as the accidental injury, is a desirable accessory, and unforeseen event that could have been avoided if the circumstances leading to the accident, was recognized and acted on, prior to his appearance.</t>
+  </si>
+  <si>
+    <t>Accompaniment is support of the musical pieces that the rhythmic or harmonic of the melody or themes of a song or instrumental piece.</t>
+  </si>
+  <si>
+    <t>"From each according to his ability, to each according to his needs" (French: from each according to his ability, to each according to his needs;) German: Jeder nach seinen abilities, jedem nach seinen frische) is a slogan popularized by Karl Marx in his Critique of the Gotha program 1875.</t>
+  </si>
+  <si>
+    <t>Tropical fruit Acerola emarginata is a shrub or small tree in the family Malpighiaceae.</t>
+  </si>
+  <si>
     <t>Youdao</t>
   </si>
   <si>
-    <t>Armed and Hammered was a hardcore punk band from Toronto, Ontario, spawned from the Kensington Market, BFG (Bunchofuckingoofs) scene.</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>Armed and hammered was a hardcore punk band from Toronto, Ontario, played from Kensington market, BFG (Bunchofuckingoofs) scene.</t>
+  </si>
+  <si>
+    <t>The resignation is officially to relinquish sovereign authority; Give leadership.</t>
+  </si>
+  <si>
+    <t>This is a list of Latin words derived from English (and other modern languages).</t>
+  </si>
+  <si>
+    <t>In mathematical logic, a formula is said to be absolute if it has the same truth value in every little class of structures (also called models).</t>
+  </si>
+  <si>
+    <t>Abuse is the inappropriate use or treatment of an entity, often to benefit unfairly or inappropriately.</t>
+  </si>
+  <si>
+    <t>Accident, also known as unintentional injuries, is undesirable, random and unplanned events that could have been prevented had circumstances leading to the accident was recognized and acted on, before it occurs.</t>
+  </si>
+  <si>
+    <t>Support, it's the musical parts that ensure the rhythmic or harmonic support for the melody or the main themes of a song or an instrumental piece.</t>
+  </si>
+  <si>
+    <t>"Each according to his ability, to each according to his need" (French: de ses moyens, all according to a la carte all ses, according to's; Germany: nach seinen Fähigkeiten, jedem seinen Bedürfnissen at) slogan get Karl Marx in his 1875 critique of the program by the popularised.</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata is a tropical fruit bearing trees or small trees in the family Malpighiaceae.</t>
+  </si>
+  <si>
+    <t>Lev-Distance</t>
   </si>
   <si>
     <t>pt</t>
   </si>
   <si>
-    <t>ko</t>
+    <t>武装和锤击是安大略省多伦多的一个硬核朋克乐队，从肯辛顿市场（Bunchofuckingoofs）场景中产生。</t>
+  </si>
+  <si>
+    <t>武装和锤击是安大略省多伦多的一个硬核朋克乐队，由肯辛顿市场市场BFG（Bunchofuckingoofs）产生。</t>
+  </si>
+  <si>
+    <t>放弃是正式放弃君主权力的行为;放弃领导</t>
+  </si>
+  <si>
+    <t>大赦是一种正式放弃君主制的权威的行为。领导放弃。</t>
+  </si>
+  <si>
+    <t>这是一个列有拉丁语的词汇与英语（和其他现代语言）的衍生词。</t>
+  </si>
+  <si>
+    <t>在数学逻辑中，如果在某些类型的结构（也称为模型）中具有相同的真值，则公式被认为是绝对的。</t>
+  </si>
+  <si>
+    <t>在数学逻辑中，如果在每个结构类（也称为模型）中具有相同的真值，则公式被认为是绝对的。</t>
+  </si>
+  <si>
+    <t>滥用是对实体的不当使用或处理，往往不公平或不正当地获益。</t>
+  </si>
+  <si>
+    <t>滥用是对实体的不当使用或处理，往往是不公平地或不正当地获得利益。</t>
+  </si>
+  <si>
+    <t>Wahoo（Acanthocybium solandri）是全球热带和亚热带海域发现的scombrid鱼。</t>
+  </si>
+  <si>
+    <t>事故也被称为无意伤害事件，是一种不可预料的，偶然的和计划外的事件，如果在发生事故之前已经认识到并采取行动，可能会发生事故。</t>
+  </si>
+  <si>
+    <t>这起事故也被称为无意伤害，是导致事故发生的情况得到承认并在发生之前采取行动的可预防的事故。</t>
+  </si>
+  <si>
+    <t>伴奏是为歌曲或乐器的旋律或主要主题提供节奏和/或谐波支持的音乐部分。</t>
+  </si>
+  <si>
+    <t>伴奏是为歌曲或乐器的旋律或主题提供节奏和/或和谐支持的音乐部分。</t>
+  </si>
+  <si>
+    <t>（法语：De chacun selon ses moyens，àchacun selon ses besoins;德语：Jeder nach seinenFähigkeiten，jedem nach seinenBedürfnissen）是卡尔·马克思（Karl Marx）普及的口号，他的1875年哥达计划批评。</t>
+  </si>
+  <si>
+    <t>（法语：“De chacun selon ses moyens”，“chacun selon ses besoins”，德语：Jeder nach seinenFähigkeiten，jedem nach seinenBedürfnissen）是卡尔·马克思（Karl Marx）普及的口号，在他对1875年哥达计划的批评中。</t>
+  </si>
+  <si>
+    <t>马鞭草属（Malpighia emarginata）是马鞭草科的一种热带水果灌木或小树。</t>
+  </si>
+  <si>
+    <t>马鞭草属（Malpighia emarginata）是一种热带水果灌木或马鞭草科的小树。</t>
+  </si>
+  <si>
+    <t>武装和锤从多伦多，安大略省的硬核朋克乐队诞生从肯辛顿市场，高炉煤气 (Bunchofuckingoofs) 现场。</t>
+  </si>
+  <si>
+    <t>从肯辛顿市场是从多伦多，安大略省，高炉煤气 (Bunchofuckingoofs) 现场，硬核朋克乐队和武装，遭到锤子生成。</t>
+  </si>
+  <si>
+    <t>辞职是指正式放弃君主的权力;要放弃领导。</t>
+  </si>
+  <si>
+    <t>辞职是的行为正式放弃君主的权威;给你的方向。</t>
+  </si>
+  <si>
+    <t>这是一个衍生物在英语中与拉丁单词列表 （和其他现代语言）。</t>
+  </si>
+  <si>
+    <t>它是一个衍生物在英语中与拉丁单词列表 （和其他语言）。</t>
+  </si>
+  <si>
+    <t>在数理逻辑公式据说是绝对的如果它具有相同的真理价值的一些类 （也称为模型） 的结构，每年。</t>
+  </si>
+  <si>
+    <t>在数理逻辑公式理应是绝对的如果它有相同的真值在每个类结构 （也称为模型）。</t>
+  </si>
+  <si>
+    <t>滥用是使用不当或处理的实体，经常进行不公平或不当收益。</t>
+  </si>
+  <si>
+    <t>滥用是使用不当或处理的实体，经常不公平或不正确地获得利益。</t>
+  </si>
+  <si>
+    <t>刺鲅 (Acanthocybium solandri) 是鲭科鱼，产于世界各地的热带和亚热带海域。</t>
+  </si>
+  <si>
+    <t>刺鲅 (Acanthocybium solandri) 是在热带和亚热带海域世界各地的鲭科鱼。</t>
+  </si>
+  <si>
+    <t>一次事故，也被称为非故意的伤害，是不可取的偶然的和本来可以避免的意外的事件已经导致被公认，和付诸实行之前，对其发生的意外情况。</t>
+  </si>
+  <si>
+    <t>也称为非故意伤害，事故是不可取的顺便说一句，和能够停止意外的事件，态势感知能力，和采取行动，导致以前发生过的事故。</t>
+  </si>
+  <si>
+    <t>伴奏是提供的节奏和/或谐波的音乐部分支持的旋律或主题的歌曲或乐曲。</t>
+  </si>
+  <si>
+    <t>歌曲抄送或器乐部分旋律或主要的节奏或谐波的伴奏的工作主题是为支持。</t>
+  </si>
+  <si>
+    <t>"从每个根据他的能力，做到各尽所能需要"(法语： De chacun 承认 ses 乘坐、 à chacun se 来满足其承认;德国： Jeder 代表了青年 jedem 代表了青年 Bedürfnissen Fähigkeiten) 一句口号卡尔 · 马克思在哥达纲领他 1875年批判普及开来。</t>
+  </si>
+  <si>
+    <t>"从每个根据他的能力，做到各尽所能需要"(法语： 从每个人根据自己的能力，每个人根据自己的需要;)德国： Jeder 代表了青年能力、 jedem 代表了青年 frische) 是由卡尔 · 马克思在哥达纲领 1875年他批判推广口号。</t>
+  </si>
+  <si>
+    <t>金虎尾 emarginata 是热带果实的灌木或小乔木在家庭 Malpighiaceae。</t>
+  </si>
+  <si>
+    <t>金虎尾 emarginata 是果灌木或小型热带树种，Malpighiaceae 家庭。</t>
+  </si>
+  <si>
+    <t>从肯辛顿市场，BFG(Bunchofuckingoofs)的场景中，来自多伦多，安大略的一个硬核朋克乐队。</t>
+  </si>
+  <si>
+    <t>多伦多,安大略省到硬件内核朋克乐队。ケンジントン市场,BFG(Bunchofuckingoofs)场面开始生成,武装,锤子,打动了。</t>
+  </si>
+  <si>
+    <t>退位是正式放弃君主权力的行为;放弃领导。</t>
+  </si>
+  <si>
+    <t>辞职是正式放弃的君主权威;领导领导力。</t>
+  </si>
+  <si>
+    <t>这是一个用英语(和其他现代语言)衍生的拉丁词的列表。</t>
+  </si>
+  <si>
+    <t>这些拉丁词派生列表与英文(和其他现代语言)。</t>
+  </si>
+  <si>
+    <t>在数学逻辑中，一个公式被认为是绝对的，如果它在每一种结构(也称为模型)中具有相同的真值。</t>
+  </si>
+  <si>
+    <t>数学的逻辑公式被称为(也被称为模型)的结构的几个班的分别相同值时是绝对真理。</t>
+  </si>
+  <si>
+    <t>滥用是对一个实体的不恰当的使用或处理，通常是不公平或不当得利。</t>
+  </si>
+  <si>
+    <t>是滥用使用不当或处理一个实体,往往受益不公平或不当。</t>
+  </si>
+  <si>
+    <t>Wahoo(acanthcybium solandri)是一种在全球热带和亚热带海域发现的scombrid鱼。</t>
+  </si>
+  <si>
+    <t>Wahoo Acanthocybium(scombrid鱼solandri)是一个在全世界热带和亚热带海洋。</t>
+  </si>
+  <si>
+    <t>一场意外事故，也被称为无意伤害，是一种不受欢迎的、偶然的、意外的事件，如果在事故发生前发生事故，并在事故发生前采取行动，就可以防止事故发生。</t>
+  </si>
+  <si>
+    <t>作为非故意伤害、防止事故的可能性有意料之外的活动,认识其产生被事先行动事故之前的状况,不可取,偶发,。</t>
+  </si>
+  <si>
+    <t>伴奏是为歌曲或乐器的旋律或主要主题提供有节奏和/或和声支持的音乐部分。</t>
+  </si>
+  <si>
+    <t>伴奏节奏和谐波,提供音乐的旋律和歌曲或零件インストゥルメンタル作品的主要主题的支持。</t>
+  </si>
+  <si>
+    <t>“根据他的能力，根据他的需要，每一个人”(法语:De chacun selon ses moyens,chacun selon ses besoins;德语:Jeder nach seinen Fahigkeiten,jedem nach seinen Bedurfnissen)是卡尔·马克思在他1875年对Gotha计划的批判中广为流传的一个口号。</t>
+  </si>
+  <si>
+    <t>“根据他的能力他分别显示各格林”(法语:De selon moyens ses电影,电影besoins小盘selon ses;德语:Jeder nach青年nach青年Bedurfnissen Fahigkeiten)1875 Gotha程序的批评马克思根据大众的颂歌路易斯口号。</t>
+  </si>
+  <si>
+    <t>马皮吉亚(Malpighia emarginata)是一种热带灌木或小乔木，生长在malpighi科。</t>
+  </si>
+  <si>
+    <t>malpighia emarginata在10大的水果轴承或家族malpighiacee中小树。</t>
+  </si>
+  <si>
+    <t>Armed and Hammeredは、オンタリオ州トロントのハードコア・パンク・バンドで、ケンジントン・マーケット、BFG（Bunchofuckingoofs）のシーンから生まれました。</t>
+  </si>
+  <si>
+    <t>トロント、オンタリオ州のBunchofuckingoofsのシーンから武装し、ハードコアのパンクバンドを叩いた。</t>
+  </si>
+  <si>
+    <t>退位は、正式に君主的権威を放棄する行為である。リーダーシップを放棄する。</t>
+  </si>
+  <si>
+    <t>放棄は、公式に君主の力をあきらめ、リーダーシップを放棄する行為である</t>
+  </si>
+  <si>
+    <t>これは、英語の派生語を含むラテン語のリスト（およびその他の現代の言語）です。</t>
+  </si>
+  <si>
+    <t>数学的論理では、数式は、あるクラスの構造（モデルとも呼ばれる）のそれぞれにおいて同じ真理値を有する場合、絶対的であると言われる。</t>
+  </si>
+  <si>
+    <t>数学ロジックでは、各クラスの構造（モデルとも呼ばれます）に同じ真理値がある場合、式は絶対的です。</t>
+  </si>
+  <si>
+    <t>虐待は、しばしば不公平に、または不適切に利益を得るために、事業体の不適切な使用または処理である。</t>
+  </si>
+  <si>
+    <t>虐待は、しばしば不公平または過当な利益を得るために、企業の不適切な使用または治療です。</t>
+  </si>
+  <si>
+    <t>Wahoo（Acanthocybium solandri）は、熱帯および亜熱帯の海域で世界中で発見された種間魚です。</t>
+  </si>
+  <si>
+    <t>Wahoo（Acanthocybium solandri）は、熱帯や亜熱帯の海で、世界的に発見されたアサリ魚です。</t>
+  </si>
+  <si>
+    <t>意図しない傷害としても知られる事故は、発生前に事故に至った状況が認識され、遂行された場合に、予防できなかった望ましくない、偶発的で計画外の事象である。</t>
+  </si>
+  <si>
+    <t>自発的傷害としても知られる事故は、事故につながる状況が事故前に認識され、行動した場合に防止できた、望ましくない偶発的かつ計画外の事象である。</t>
+  </si>
+  <si>
+    <t>伴奏は、曲や楽器のメロディやメインテーマのリズムやハーモニックのサポートを提供する音楽パートです。</t>
+  </si>
+  <si>
+    <t>伴奏は、ボーカルやインストゥルメンタルパートのメロディやメインテーマのリズムや調和の取れたサポートを提供する音楽パートです。</t>
+  </si>
+  <si>
+    <t>「彼の能力に応じて、それぞれのニーズに応じて」（フランス語：De Chacun selon ses mesens、Čacunselon ses besoins、ドイツ語：Jeder nach seinenFähigkeiten、jedem nach seinenBedürfnissen）は、Karl Marxによって大衆化されたスローガンです。彼の1875年のGothaプログラム批判。</t>
+  </si>
+  <si>
+    <t>「自分の能力に応じて、それぞれのニーズに応じて」（フランス語：de chacun selon ses moyens、àchacun selon ses besoins）は、カール・マルクスが1875年にゴタ・プログラム批評で大衆化したスローガンです。</t>
+  </si>
+  <si>
+    <t>Malpighia emarginataは、Malpighiaceae科の熱帯の果実を持つ低木または小さな木です。</t>
+  </si>
+  <si>
+    <t>Malpighia emarginataはトロピカルフルーツ保有低木やMalpighiaceae系統の小さな木です。</t>
+  </si>
+  <si>
+    <t>トロント、オンタリオ州からハードコア パンク バンドだったケンジントン マーケット、BFG (Bunchofuckingoofs) シーンから生成されるは、武装し、槌で打たれました。</t>
+  </si>
+  <si>
+    <t>アームとケンジントン マーケット、BFG (Bunchofuckingoofs) シーンからハードコア パンク バンドのトロント、オンタリオ州誕生からハンマー。</t>
+  </si>
+  <si>
+    <t>退位は君主の権威を正式に放棄する行為です。リーダーシップをあきらめる。</t>
+  </si>
+  <si>
+    <t>放棄は、君主の力を放棄して正式にガイドを放棄します。</t>
+  </si>
+  <si>
+    <t>これは英語でデリバティブのラテン系の単語のリスト (とその他の現代言語) です。</t>
+  </si>
+  <si>
+    <t>数学的なロジックの数式と言われて (モデルとも呼ばれます) の構造のいくつかのクラスのそれぞれに同じ真理値がある場合は絶対します。</t>
+  </si>
+  <si>
+    <t>数学的なロジックの数式をいくつかの種類 (モデル) の同じ真理値がある場合は絶対だ、毎年構造。</t>
+  </si>
+  <si>
+    <t>虐待、不適切な使用または不適切、または不当な利益を得るために多くの場合、エンティティの治療です。</t>
+  </si>
+  <si>
+    <t>虐待は、不適切な使用または不適切、または不当の利益のため多くの場合、エンティティの治療です。</t>
+  </si>
+  <si>
+    <t>ワフー (Acanthocybium solandri) は世界中で見られる熱帯・亜熱帯の海で発見された魚です。</t>
+  </si>
+  <si>
+    <t>ワフー (Acanthocybium solandri) は世界の熱帯・亜熱帯の海で発見された魚です。</t>
+  </si>
+  <si>
+    <t>として知られている非意図的傷害、事故は防げた可能性があります予期しないイベントが認識、その発生を事前に行動をされて事故に至るまでの状況、望ましくない、偶発的、です。</t>
+  </si>
+  <si>
+    <t>事故、傷害として知られて、望ましいアクセサリーと、事故に至る経緯が認識され、彼の出現の前に行動した場合回避されている可能性があります予期しないイベントです。</t>
+  </si>
+  <si>
+    <t>伴奏は、リズムや高調波を提供する音楽的な部品をメロディーや曲やインストゥルメンタル作品の主要なテーマのサポートです。</t>
+  </si>
+  <si>
+    <t>伴奏は、ミュージカルのサポート部分はリズムやメロディーや曲やインストゥルメンタル作品のテーマのハーモニー。</t>
+  </si>
+  <si>
+    <t>「彼の能力に従ってそれぞれから彼によるとそれぞれにニーズ」(フランス語: De 映画 selon ses moyens、アラカルト映画 selon ses besoins;ドイツ語: Jeder nach 青年の nach 青年 Bedürfnissen Fähigkeiten) 1875 Gotha プログラムの批評でカール ・ マルクスによって大衆のキャロルルイス スローガンです。</t>
+  </si>
+  <si>
+    <t>「彼の能力に従ってそれぞれから彼によるとそれぞれにニーズ」(フランス語:; 彼の必要性に従ってそれぞれへ彼の能力に従ってそれぞれから)ドイツ語: Jeder nach 青年の能力の nach 青年 frische) 1875 Gotha プログラムの批評でカール ・ マルクスによって大衆化されたスローガンであります。</t>
+  </si>
+  <si>
+    <t>生の発生経過、熱帯果実軸受低木または家族キントラノオ科の小さなツリーです。</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata は、トロピカル・フルーツの軸受の木または家族 Malpighiaceae からの小さい木。</t>
+  </si>
+  <si>
+    <t>武装され、槌で打たれたトロント、オンタリオ州、BFG (Bunchofuckingoofs) シーン、ケンジントン マーケットから生成からハードコア パンクのバンド。</t>
+  </si>
+  <si>
+    <t>辞任である君主の権威を正式に放棄する行為方向性を与えます。</t>
+  </si>
+  <si>
+    <t>これは英語から派生したラテン系の単語のリスト (および他の現代言語) です。</t>
+  </si>
+  <si>
+    <t>数学の論理では、1つの式は絶対的であると考えられているが、それが各構造(モデルとも呼ばれる)の場合と同じような真の値を有すると考えられる。</t>
+  </si>
+  <si>
+    <t>虐待は、不適切な使用またはエンティティ、しばしば不当または不適切な利益を得ることの治療です。</t>
+  </si>
+  <si>
+    <t>それは望ましくないクラッシュ、として知られている傷害、偶発的かつ予期せぬイベントされている可能性が回避認識、その発生を事前に行動をされて事故に至るまでの状況。</t>
+  </si>
+  <si>
+    <t>伴奏のリズムや高調波は音楽の部分のメロディーや曲や器楽作品の主要なテーマをサポートしています。</t>
+  </si>
+  <si>
+    <t>「彼の能力によって、彼の必要によって、一人一人」(フランス語:de chacun selon ses moyens、chacun selon ses besoins;ドイツ语:Jeder nach seinen Fahigkeiten、jedem nach seinen Bedurfnissen)はカール・マルクスは彼の1875年Gotha計画に対しての批判で広まった一スローガンだ。</t>
+  </si>
+  <si>
+    <t>马の皮ジャ(malpighia emarginata)は一種の热帯の灌木や小さなざいもく、成長はmalpighi科。</t>
+  </si>
+  <si>
+    <t>Armed and Hammered는 온타리오 주 토론토 출신의 하드 코어 펑크 밴드로 BFG (Bunchofuckingoofs)의 켄싱턴 시장 (Kensington Market)에서 창작되었습니다.</t>
+  </si>
+  <si>
+    <t>Armed and Hammered는 Kensington 시장 인 BFG (Bunchofuckingoofs)에서 온 온타리오주의 토론토 출신의 하드 코어 펑크 밴드입니다.</t>
+  </si>
+  <si>
+    <t>사면은 공식적으로 군주제의 권위를 포기하는 행위이다. 리더십 포기.</t>
+  </si>
+  <si>
+    <t>탈퇴는 공식적으로 군주제 권위를 포기하는 행위이다. 리더십 포기.</t>
+  </si>
+  <si>
+    <t>이것은 파생어가 영어 (및 다른 현대어)로 된 라틴어 단어 목록입니다.</t>
+  </si>
+  <si>
+    <t>수학 논리에서 수식은 어떤 종류의 구조 (모델이라고도 함) 각각에서 동일한 진리 값을 갖는다면 절대적이라고 말할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>수학 논리에서 수식은 각 클래스 구조 (모델이라고도 함)에서 동일한 진리 값을 갖는 경우 절대적이라고합니다.</t>
+  </si>
+  <si>
+    <t>학대는 종종 부당하게 또는 부적절하게 이익을 얻으려는 부적절한 사용이나 대우입니다.</t>
+  </si>
+  <si>
+    <t>학대는 종종 부당하거나 부적절한 이익을 얻기 위해 종종 기업의 오용이나 대우입니다.</t>
+  </si>
+  <si>
+    <t>Wahoo (Acanthocybium solandri)는 열대 및 아열대 바다에서 전 세계적으로 발견되는 바지락 물고기입니다.</t>
+  </si>
+  <si>
+    <t>의도하지 않은 상해라고도하는 사고는 바람직하지 않은 우발적 인 계획되지 않은 사건으로서 사고까지의 상황을 인식하고 발생시킨 후에 예방할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>비자 발적 상해라고도하는 사고는 사고로 이어지는 상황이 사고 이전에인지되고 조치를 취하는 경우 예방 될 수있는 바람직하지 않은 부수적 인 계획되지 않은 사건입니다.</t>
+  </si>
+  <si>
+    <t>반주는 멜로디 또는 노래 또는 악기 부분의 주요 테마에 대한 리듬 및 / 또는 고조파 지원을 제공하는 음악 파트입니다.</t>
+  </si>
+  <si>
+    <t>반주는 노래와 악기의 멜로디와 메인 테마의 리듬과 하모닉의 지원을 제공하는 음악 파트입니다.</t>
+  </si>
+  <si>
+    <t>&amp;quot;자신의 능력에 따라 각자 자신의 필요에 따라&amp;quot;(프랑스어 : De Chacun selon ses mesens, à chacun selon ses besoins, 독일어 : Jeder nach seinen Fähigkeiten, jedem nach seinen Bedürfnissen)는 Karl Marx에서 대중화 된 슬로건이다. 그의 1875 고타 프로그램 비판.</t>
+  </si>
+  <si>
+    <t>&amp;quot;자신의 능력에 따라 각자 자신의 필요에 따라&amp;quot;(프랑스어 : de chacun selon ses moyens, à chacun selon ses besoins)는 1875 년 Gotha 프로그램 비평에서 Karl Marx가 대중화 한 슬로건입니다.</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata는 열대 과일 보유 관목이나 Malpighiaceae 계통의 작은 나무입니다.</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata는 열대 과일 관목 또는 Malpighiaceae 계통의 작은 나무입니다.</t>
   </si>
   <si>
     <t>무장을 하 고 망치로 켄싱턴 시장, BFG (Bunchofuckingoofs) 현장에서에서 토론토, 온타리오에서 하드 코어 펑크 밴드 양산 했다.</t>
   </si>
   <si>
-    <t>무장을 하 고 망치로 켄싱턴 시장, BFG (Bunchofuckingoofs) 현장에서에서 토론토, 온타리오에서 하드 코어 펑크 밴드 생성 되었습니다.</t>
-  </si>
-  <si>
-    <t>Abdication is the act of formally relinquishing monarchical authority; To give up leadership.</t>
-  </si>
-  <si>
-    <t>sv</t>
+    <t>무장 고 망치로 토론토, 온타리오, 켄싱턴 시장, BFG (Bunchofuckingoofs) 현장에서 생성 된에서 하드 코어 펑크 밴드.</t>
   </si>
   <si>
     <t>사직은 공식적으로 포기 하는 군주 권위; 리더십을 주고.</t>
   </si>
   <si>
-    <t>사직은 공식적으로 항복 군주 권위; 리더십을 주고.</t>
-  </si>
-  <si>
-    <t>This is a list of Latin words with derivatives in English (and other modern languages).</t>
-  </si>
-  <si>
-    <t>zh-CHS</t>
+    <t>포기는 공식적으로 포기 군주의 힘; 가이드를 포기.</t>
   </si>
   <si>
     <t>이것은 영어에서 파생 라틴어 단어 목록 (및 다른 현대 언어)입니다.</t>
   </si>
   <si>
+    <t>수학 논리에서 수식 구조 (모델 라고도 함)의 일부 클래스의 각각에 동일한 진리 값 있으면 절대 있다.</t>
+  </si>
+  <si>
+    <t>수학 논리에서 수식 이라고, 만약에 동일한 진리 값 구조 (모델 라고도 함)의 일부 클래스의 각.</t>
+  </si>
+  <si>
+    <t>학대 부적 절 한 사용 또는 엔터티, 종종 부당하 게 또는 부적절 하 게 혜택을 얻을의 치료입니다.</t>
+  </si>
+  <si>
+    <t>학대, 잘못 사용 하거나 부적절 하거나 부당한 이득을 얻기 위해 많은 경우 치료입니다.</t>
+  </si>
+  <si>
+    <t>와 후 (Acanthocybium solandri)는 전세계 열 대와 아열대 바다에서 발견 scombrid 물고기입니다.</t>
+  </si>
+  <si>
+    <t>로 알려진 또한 의도 하지 않은 부상, 사고는 바람직하지 않은, 부수적, 그리고 예기치 않은 이벤트를 막을 수 했다 상황 인식, 그리고 시 행동, 그 발생 하기 전에 사고로 이어지는.</t>
+  </si>
+  <si>
+    <t>사고, 일컬어 부수적인 피해는 원하지 않는, 외 이며 계획 되지 않은 이벤트를 막을 수 있었다 사고 인식 및 행동에 따라, 그것의 발생을 사전에 이어지는 상황.</t>
+  </si>
+  <si>
+    <t>반주 리듬 또는 고조파는 음악 부분 멜로디 또는 노래나 기 악 작품의 주요 테마에 대 한 지원 이다.</t>
+  </si>
+  <si>
+    <t>반주, 리듬과 조화를 제공 하는 음악 부속을 멜로디와 노래와 경 음악 작품의 주요 테마를 지원 합니다.</t>
+  </si>
+  <si>
+    <t>"각 그의 능력에 따라, 그에 따라 각 필요" (프랑스어: 데 모두가 따르면 ses moyens, 일품 모두가 따르면 ses의; 독일: 어느 nach seinen Fähigkeiten, jedem에 seinen Bedürfnissen)는 슬로건 타 프로그램의 그의 1875 비판에 Karl Marx에 의해 유명해 졌.</t>
+  </si>
+  <si>
+    <t>당신의 필요에 따르면 각각에 능력에 따르면 각각"에서" (프랑스어: 모든에 따르면 ses 라이트 미들급, 일품 모두가 따르면 ses의; 독일: 어느 nach seinen Fähigkeiten, 제 드 nach seinen Bedürfnissen) 1875 Gotha 프로그램의 강평에 Karl Marx에 의해 대중화 하는 슬로건입니다.</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata는 열 대 과일 베어링 나무 또는 가족 Malpighiaceae에에서 작은 나무.</t>
+  </si>
+  <si>
+    <t>생 발생 경과, 열 대 과일 베어링 관목 또는 가족 キントラノオ과 작은 나무입니다.</t>
+  </si>
+  <si>
+    <t>토론토, 온타리오에서 하드 코어 펑크 밴드 인 켄싱턴 마켓, BFG (Bunchofuckingoofs) 현장에서 생성 되는 무장 하 고 망치로 맞았다.</t>
+  </si>
+  <si>
+    <t>사직은 군주의 권위를 공식적으로 포기 하는 행위입니다. 지도력을 포기 한다.</t>
+  </si>
+  <si>
     <t>이것은 영어 (다른 현대 언어)와 파생 된 라틴 어로 된 목록이다.</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Armed and Hammered는 온타리오 주 토론토 출신의 하드 코어 펑크 밴드로 BFG (Bunchofuckingoofs)의 켄싱턴 시장 (Kensington Market)에서 창작되었습니다.</t>
-  </si>
-  <si>
-    <t>Armed and Hammered는 토론토에서 온 하드 코어 펑크 밴드로, Kensington Market 시장 장면 인 BFG (Bunchofuckingoofs)에서 제작되었습니다.</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>사면은 공식적으로 군주제의 권위를 포기하는 행위이다. 리더십 포기.</t>
-  </si>
-  <si>
-    <t>탈퇴는 형식적으로 군주제적인 권위를 포기하는 행위이다. 리더십 포기.</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>이것은 파생어가 영어 (및 다른 현대어)로 된 라틴어 단어 목록입니다.</t>
-  </si>
-  <si>
-    <t>In mathematical logic, a formula is said to be absolute if it has the same truth value in each of some class of structures (also called models).</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>(Also called models), said the formula of mathematical logic in if you have the same truth value in each class are some of the structure of the absolute.</t>
-  </si>
-  <si>
-    <t>Abuse is the improper usage or treatment of an entity, often to unfairly or improperly gain benefit.</t>
-  </si>
-  <si>
-    <t>Misuse is an improper use or treatment of an entity, often unfair or unjust enrichment.</t>
-  </si>
-  <si>
-    <t>Wahoo (Acanthocybium solandri) is a scombrid fish found worldwide in tropical and subtropical seas.</t>
-  </si>
-  <si>
-    <t>Lev-Distance</t>
+    <t>수학 논리, 수식은 같은 진리 값 각 구조 (모델 라고도 함)의 일부 클래스의 경우 절대 간주 됩니다.</t>
+  </si>
+  <si>
+    <t>종종 부당하 게 또는 가난 하 게 학대는 부적절 한 사용 또는 엔터티, 치료를 즐길 수.</t>
+  </si>
+  <si>
+    <t>와 후 (Acanthocybium solandri)는 전 세계 열 대와 아열대 바다에서 발견 고등어과의 물고기.</t>
+  </si>
+  <si>
+    <t>예술적 또는 고조파 지원-뮤지컬 부분 지원 벨소리 또는 메인 테마 노래 경 음악 조각.</t>
+  </si>
+  <si>
+    <t>"각 그의 능력에 따라, 그에 따라 각 필요" (프랑스어: 데 모두가 따르면 ses moyens, 일품 모두가 따르면 ses의; 독일: 어느에 전달 Fähigkeiten, jedem에 전달 Bedürfnissen) 타 프로그램의 그의 1875 비판에 Karl Marx에 의해 대중화 하는 슬로건입니다.</t>
+  </si>
+  <si>
+    <t>Malpighia emarginata-열 대 과일 관목 또는 작은 나무 가족 Malpighiaceae의.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -539,22 +1055,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -562,30 +1078,30 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -594,59 +1110,59 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -654,22 +1170,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -677,22 +1193,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -700,22 +1216,2575 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>140</v>
+      </c>
+      <c r="G74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>145</v>
+      </c>
+      <c r="G87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>153</v>
+      </c>
+      <c r="G91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>168</v>
+      </c>
+      <c r="G94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>173</v>
+      </c>
+      <c r="G97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>174</v>
+      </c>
+      <c r="G98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>182</v>
+      </c>
+      <c r="G102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>186</v>
+      </c>
+      <c r="G104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>187</v>
+      </c>
+      <c r="G105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>189</v>
+      </c>
+      <c r="G106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>191</v>
+      </c>
+      <c r="G107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>194</v>
+      </c>
+      <c r="G109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>196</v>
+      </c>
+      <c r="G110" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>186</v>
+      </c>
+      <c r="G114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>187</v>
+      </c>
+      <c r="G115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>189</v>
+      </c>
+      <c r="G116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>191</v>
+      </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G118" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>198</v>
+      </c>
+      <c r="G121" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +3798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -759,10 +3828,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.8840579710144928</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -773,10 +3842,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.6914893617021277</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -787,52 +3856,52 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.9540229885057471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7264150943396226</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.92</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8248847926267281</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -846,7 +3915,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.7524038461538461</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -860,7 +3929,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8288770053475936</v>
+        <v>0.8409893992932862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -874,7 +3943,1561 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
+        <v>0.7423312883435583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8172043010752689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7896678966789668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.825136612021858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8563218390804598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9507042253521126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8033707865168539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8815165876777251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8655097613882863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8398576512455516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8641114982578397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8043478260869565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9616858237547893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7586206896551724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9161676646706587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9652777777777778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8993288590604027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8843537414965986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8102836879432624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9641025641025641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7209302325581395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9302325581395349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.971875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8863636363636364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6722689075630253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7926829268292683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7313432835820896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8539325842696629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6050420168067226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5853658536585366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5964912280701754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7339449541284404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5371900826446281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6645569620253164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7070707070707071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7837837837837838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.6489028213166145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7565217391304347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6491228070175439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5573770491803278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.6607142857142857</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9361702127659575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9439252336448598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7567567567567568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7648725212464589</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4563106796116505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6149425287356322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8589743589743589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5522388059701493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6808510638297872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9439252336448598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.6459627329192547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7523809523809524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7054263565891473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4526315789473684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7156862745098039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8538461538461538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8152173913043478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.6379310344827587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7350427350427351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.7430939226519337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8089171974522293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.7457627118644068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.6796116504854369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.6858638743455497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7876106194690266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.804945054945055</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6306306306306306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7151515151515152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6986301369863014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.7280701754385965</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9069767441860465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6858638743455497</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.9014492753623189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.8373983739837398</v>
       </c>
     </row>
   </sheetData>
